--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Wnt5a-Fzd3.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Wnt5a-Fzd3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -85,7 +88,7 @@
     <t>Fzd3</t>
   </si>
   <si>
-    <t>ECs</t>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>5.85400087977297</v>
+        <v>0.1599003333333333</v>
       </c>
       <c r="H2">
-        <v>5.85400087977297</v>
+        <v>0.479701</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.0264777194346773</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.02647771943467731</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.209287496169944</v>
+        <v>0.2590246666666667</v>
       </c>
       <c r="N2">
-        <v>0.209287496169944</v>
+        <v>0.777074</v>
       </c>
       <c r="O2">
-        <v>0.09610684579855361</v>
+        <v>0.1073177818850196</v>
       </c>
       <c r="P2">
-        <v>0.09610684579855361</v>
+        <v>0.1073177818850196</v>
       </c>
       <c r="Q2">
-        <v>1.225169186704334</v>
+        <v>0.04141813054155556</v>
       </c>
       <c r="R2">
-        <v>1.225169186704334</v>
+        <v>0.372763174874</v>
       </c>
       <c r="S2">
-        <v>0.09610684579855361</v>
+        <v>0.002841530119103444</v>
       </c>
       <c r="T2">
-        <v>0.09610684579855361</v>
+        <v>0.002841530119103444</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>5.85400087977297</v>
+        <v>0.1599003333333333</v>
       </c>
       <c r="H3">
-        <v>5.85400087977297</v>
+        <v>0.479701</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.0264777194346773</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.02647771943467731</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.855271455248189</v>
+        <v>0.8886716666666666</v>
       </c>
       <c r="N3">
-        <v>0.855271455248189</v>
+        <v>2.666015</v>
       </c>
       <c r="O3">
-        <v>0.3927489380383093</v>
+        <v>0.3681899230603399</v>
       </c>
       <c r="P3">
-        <v>0.3927489380383093</v>
+        <v>0.3681899230603398</v>
       </c>
       <c r="Q3">
-        <v>5.006759851467607</v>
+        <v>0.1420988957238889</v>
       </c>
       <c r="R3">
-        <v>5.006759851467607</v>
+        <v>1.278890061515</v>
       </c>
       <c r="S3">
-        <v>0.3927489380383093</v>
+        <v>0.009748829481467103</v>
       </c>
       <c r="T3">
-        <v>0.3927489380383093</v>
+        <v>0.009748829481467103</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -655,49 +658,359 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>5.85400087977297</v>
+        <v>0.1599003333333333</v>
       </c>
       <c r="H4">
-        <v>5.85400087977297</v>
+        <v>0.479701</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.0264777194346773</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.02647771943467731</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.11309545426931</v>
+        <v>0.000138</v>
       </c>
       <c r="N4">
-        <v>1.11309545426931</v>
+        <v>0.000414</v>
       </c>
       <c r="O4">
-        <v>0.5111442161631369</v>
+        <v>5.71754578076195E-05</v>
       </c>
       <c r="P4">
-        <v>0.5111442161631369</v>
+        <v>5.71754578076195E-05</v>
       </c>
       <c r="Q4">
-        <v>6.516061768563834</v>
+        <v>2.2066246E-05</v>
       </c>
       <c r="R4">
-        <v>6.516061768563834</v>
+        <v>0.000198596214</v>
       </c>
       <c r="S4">
-        <v>0.5111442161631369</v>
+        <v>1.513875730379379E-06</v>
       </c>
       <c r="T4">
-        <v>0.5111442161631369</v>
+        <v>1.513875730379379E-06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.1599003333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.479701</v>
+      </c>
+      <c r="I5">
+        <v>0.0264777194346773</v>
+      </c>
+      <c r="J5">
+        <v>0.02647771943467731</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1.265788666666667</v>
+      </c>
+      <c r="N5">
+        <v>3.797366</v>
+      </c>
+      <c r="O5">
+        <v>0.524435119596833</v>
+      </c>
+      <c r="P5">
+        <v>0.524435119596833</v>
+      </c>
+      <c r="Q5">
+        <v>0.2024000297295556</v>
+      </c>
+      <c r="R5">
+        <v>1.821600267566</v>
+      </c>
+      <c r="S5">
+        <v>0.01388584595837638</v>
+      </c>
+      <c r="T5">
+        <v>0.01388584595837638</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>5.879152</v>
+      </c>
+      <c r="H6">
+        <v>17.637456</v>
+      </c>
+      <c r="I6">
+        <v>0.9735222805653226</v>
+      </c>
+      <c r="J6">
+        <v>0.9735222805653228</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.2590246666666667</v>
+      </c>
+      <c r="N6">
+        <v>0.777074</v>
+      </c>
+      <c r="O6">
+        <v>0.1073177818850196</v>
+      </c>
+      <c r="P6">
+        <v>0.1073177818850196</v>
+      </c>
+      <c r="Q6">
+        <v>1.522845387082667</v>
+      </c>
+      <c r="R6">
+        <v>13.705608483744</v>
+      </c>
+      <c r="S6">
+        <v>0.1044762517659162</v>
+      </c>
+      <c r="T6">
+        <v>0.1044762517659162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>5.879152</v>
+      </c>
+      <c r="H7">
+        <v>17.637456</v>
+      </c>
+      <c r="I7">
+        <v>0.9735222805653226</v>
+      </c>
+      <c r="J7">
+        <v>0.9735222805653228</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.8886716666666666</v>
+      </c>
+      <c r="N7">
+        <v>2.666015</v>
+      </c>
+      <c r="O7">
+        <v>0.3681899230603399</v>
+      </c>
+      <c r="P7">
+        <v>0.3681899230603398</v>
+      </c>
+      <c r="Q7">
+        <v>5.224635806426667</v>
+      </c>
+      <c r="R7">
+        <v>47.02172225784</v>
+      </c>
+      <c r="S7">
+        <v>0.3584410935788728</v>
+      </c>
+      <c r="T7">
+        <v>0.3584410935788727</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>5.879152</v>
+      </c>
+      <c r="H8">
+        <v>17.637456</v>
+      </c>
+      <c r="I8">
+        <v>0.9735222805653226</v>
+      </c>
+      <c r="J8">
+        <v>0.9735222805653228</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.000138</v>
+      </c>
+      <c r="N8">
+        <v>0.000414</v>
+      </c>
+      <c r="O8">
+        <v>5.71754578076195E-05</v>
+      </c>
+      <c r="P8">
+        <v>5.71754578076195E-05</v>
+      </c>
+      <c r="Q8">
+        <v>0.0008113229760000001</v>
+      </c>
+      <c r="R8">
+        <v>0.007301906784</v>
+      </c>
+      <c r="S8">
+        <v>5.566158207724011E-05</v>
+      </c>
+      <c r="T8">
+        <v>5.566158207724012E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>5.879152</v>
+      </c>
+      <c r="H9">
+        <v>17.637456</v>
+      </c>
+      <c r="I9">
+        <v>0.9735222805653226</v>
+      </c>
+      <c r="J9">
+        <v>0.9735222805653228</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.265788666666667</v>
+      </c>
+      <c r="N9">
+        <v>3.797366</v>
+      </c>
+      <c r="O9">
+        <v>0.524435119596833</v>
+      </c>
+      <c r="P9">
+        <v>0.524435119596833</v>
+      </c>
+      <c r="Q9">
+        <v>7.441763971210667</v>
+      </c>
+      <c r="R9">
+        <v>66.975875740896</v>
+      </c>
+      <c r="S9">
+        <v>0.5105492736384566</v>
+      </c>
+      <c r="T9">
+        <v>0.5105492736384566</v>
       </c>
     </row>
   </sheetData>
